--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf15-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf15-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Fgf15</t>
   </si>
   <si>
     <t>Fgfr3</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -534,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06149566666666666</v>
+        <v>0.06665</v>
       </c>
       <c r="H2">
-        <v>0.184487</v>
+        <v>0.19995</v>
       </c>
       <c r="I2">
-        <v>0.7313686080024103</v>
+        <v>0.3040875017679506</v>
       </c>
       <c r="J2">
-        <v>0.7313686080024102</v>
+        <v>0.3040875017679506</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.408252</v>
+        <v>6.045145666666667</v>
       </c>
       <c r="N2">
-        <v>19.224756</v>
+        <v>18.135437</v>
       </c>
       <c r="O2">
-        <v>0.8583439096634812</v>
+        <v>0.8160840232643366</v>
       </c>
       <c r="P2">
-        <v>0.8583439096634812</v>
+        <v>0.8160840232643367</v>
       </c>
       <c r="Q2">
-        <v>0.394079728908</v>
+        <v>0.4029089586833334</v>
       </c>
       <c r="R2">
-        <v>3.546717560172</v>
+        <v>3.626180628150001</v>
       </c>
       <c r="S2">
-        <v>0.6277657903979269</v>
+        <v>0.2481609518671902</v>
       </c>
       <c r="T2">
-        <v>0.6277657903979268</v>
+        <v>0.2481609518671902</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -596,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06149566666666666</v>
+        <v>0.06665</v>
       </c>
       <c r="H3">
-        <v>0.184487</v>
+        <v>0.19995</v>
       </c>
       <c r="I3">
-        <v>0.7313686080024103</v>
+        <v>0.3040875017679506</v>
       </c>
       <c r="J3">
-        <v>0.7313686080024102</v>
+        <v>0.3040875017679506</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +623,22 @@
         <v>2.04733</v>
       </c>
       <c r="O3">
-        <v>0.09140887075868921</v>
+        <v>0.09212864864242169</v>
       </c>
       <c r="P3">
-        <v>0.09140887075868921</v>
+        <v>0.09212864864242169</v>
       </c>
       <c r="Q3">
-        <v>0.04196730774555556</v>
+        <v>0.04548484816666667</v>
       </c>
       <c r="R3">
-        <v>0.37770576971</v>
+        <v>0.4093636335</v>
       </c>
       <c r="S3">
-        <v>0.06685357856585476</v>
+        <v>0.02801517060693131</v>
       </c>
       <c r="T3">
-        <v>0.06685357856585475</v>
+        <v>0.0280151706069313</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -658,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06149566666666666</v>
+        <v>0.06665</v>
       </c>
       <c r="H4">
-        <v>0.184487</v>
+        <v>0.19995</v>
       </c>
       <c r="I4">
-        <v>0.7313686080024103</v>
+        <v>0.3040875017679506</v>
       </c>
       <c r="J4">
-        <v>0.7313686080024102</v>
+        <v>0.3040875017679506</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3751373333333334</v>
+        <v>0.6799149999999999</v>
       </c>
       <c r="N4">
-        <v>1.125412</v>
+        <v>2.039745</v>
       </c>
       <c r="O4">
-        <v>0.05024721957782963</v>
+        <v>0.09178732809324164</v>
       </c>
       <c r="P4">
-        <v>0.05024721957782963</v>
+        <v>0.09178732809324165</v>
       </c>
       <c r="Q4">
-        <v>0.02306932040488889</v>
+        <v>0.04531633475</v>
       </c>
       <c r="R4">
-        <v>0.207623883644</v>
+        <v>0.40784701275</v>
       </c>
       <c r="S4">
-        <v>0.03674923903862872</v>
+        <v>0.02791137929382908</v>
       </c>
       <c r="T4">
-        <v>0.03674923903862871</v>
+        <v>0.02791137929382908</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,13 +708,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -720,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.02258733333333333</v>
+        <v>0.06149566666666667</v>
       </c>
       <c r="H5">
-        <v>0.067762</v>
+        <v>0.184487</v>
       </c>
       <c r="I5">
-        <v>0.2686313919975897</v>
+        <v>0.2805710974676865</v>
       </c>
       <c r="J5">
-        <v>0.2686313919975897</v>
+        <v>0.2805710974676864</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.408252</v>
+        <v>6.045145666666667</v>
       </c>
       <c r="N5">
-        <v>19.224756</v>
+        <v>18.135437</v>
       </c>
       <c r="O5">
-        <v>0.8583439096634812</v>
+        <v>0.8160840232643366</v>
       </c>
       <c r="P5">
-        <v>0.8583439096634812</v>
+        <v>0.8160840232643367</v>
       </c>
       <c r="Q5">
-        <v>0.144745324008</v>
+        <v>0.3717502628687778</v>
       </c>
       <c r="R5">
-        <v>1.302707916072</v>
+        <v>3.345752365819001</v>
       </c>
       <c r="S5">
-        <v>0.2305781192655544</v>
+        <v>0.2289695900331199</v>
       </c>
       <c r="T5">
-        <v>0.2305781192655543</v>
+        <v>0.2289695900331199</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -782,16 +785,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.02258733333333333</v>
+        <v>0.06149566666666667</v>
       </c>
       <c r="H6">
-        <v>0.067762</v>
+        <v>0.184487</v>
       </c>
       <c r="I6">
-        <v>0.2686313919975897</v>
+        <v>0.2805710974676865</v>
       </c>
       <c r="J6">
-        <v>0.2686313919975897</v>
+        <v>0.2805710974676864</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +809,22 @@
         <v>2.04733</v>
       </c>
       <c r="O6">
-        <v>0.09140887075868921</v>
+        <v>0.09212864864242169</v>
       </c>
       <c r="P6">
-        <v>0.09140887075868921</v>
+        <v>0.09212864864242169</v>
       </c>
       <c r="Q6">
-        <v>0.01541457505111111</v>
+        <v>0.04196730774555556</v>
       </c>
       <c r="R6">
-        <v>0.13873117546</v>
+        <v>0.37770576971</v>
       </c>
       <c r="S6">
-        <v>0.02455529219283446</v>
+        <v>0.02584863605781914</v>
       </c>
       <c r="T6">
-        <v>0.02455529219283445</v>
+        <v>0.02584863605781914</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -844,16 +847,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.02258733333333333</v>
+        <v>0.06149566666666667</v>
       </c>
       <c r="H7">
-        <v>0.067762</v>
+        <v>0.184487</v>
       </c>
       <c r="I7">
-        <v>0.2686313919975897</v>
+        <v>0.2805710974676865</v>
       </c>
       <c r="J7">
-        <v>0.2686313919975897</v>
+        <v>0.2805710974676864</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +865,400 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3751373333333334</v>
+        <v>0.6799149999999999</v>
       </c>
       <c r="N7">
-        <v>1.125412</v>
+        <v>2.039745</v>
       </c>
       <c r="O7">
-        <v>0.05024721957782963</v>
+        <v>0.09178732809324164</v>
       </c>
       <c r="P7">
-        <v>0.05024721957782963</v>
+        <v>0.09178732809324165</v>
       </c>
       <c r="Q7">
-        <v>0.008473351993777779</v>
+        <v>0.04181182620166667</v>
       </c>
       <c r="R7">
-        <v>0.07626016794400001</v>
+        <v>0.376306435815</v>
       </c>
       <c r="S7">
-        <v>0.01349798053920092</v>
+        <v>0.02575287137674742</v>
       </c>
       <c r="T7">
-        <v>0.01349798053920091</v>
+        <v>0.02575287137674742</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.057558</v>
+      </c>
+      <c r="H8">
+        <v>0.172674</v>
+      </c>
+      <c r="I8">
+        <v>0.2626056778208508</v>
+      </c>
+      <c r="J8">
+        <v>0.2626056778208507</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>6.045145666666667</v>
+      </c>
+      <c r="N8">
+        <v>18.135437</v>
+      </c>
+      <c r="O8">
+        <v>0.8160840232643366</v>
+      </c>
+      <c r="P8">
+        <v>0.8160840232643367</v>
+      </c>
+      <c r="Q8">
+        <v>0.347946494282</v>
+      </c>
+      <c r="R8">
+        <v>3.131518448538</v>
+      </c>
+      <c r="S8">
+        <v>0.2143082980880981</v>
+      </c>
+      <c r="T8">
+        <v>0.214308298088098</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.057558</v>
+      </c>
+      <c r="H9">
+        <v>0.172674</v>
+      </c>
+      <c r="I9">
+        <v>0.2626056778208508</v>
+      </c>
+      <c r="J9">
+        <v>0.2626056778208507</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.6824433333333334</v>
+      </c>
+      <c r="N9">
+        <v>2.04733</v>
+      </c>
+      <c r="O9">
+        <v>0.09212864864242169</v>
+      </c>
+      <c r="P9">
+        <v>0.09212864864242169</v>
+      </c>
+      <c r="Q9">
+        <v>0.03928007338</v>
+      </c>
+      <c r="R9">
+        <v>0.35352066042</v>
+      </c>
+      <c r="S9">
+        <v>0.02419350622346215</v>
+      </c>
+      <c r="T9">
+        <v>0.02419350622346214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.057558</v>
+      </c>
+      <c r="H10">
+        <v>0.172674</v>
+      </c>
+      <c r="I10">
+        <v>0.2626056778208508</v>
+      </c>
+      <c r="J10">
+        <v>0.2626056778208507</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.6799149999999999</v>
+      </c>
+      <c r="N10">
+        <v>2.039745</v>
+      </c>
+      <c r="O10">
+        <v>0.09178732809324164</v>
+      </c>
+      <c r="P10">
+        <v>0.09178732809324165</v>
+      </c>
+      <c r="Q10">
+        <v>0.03913454757</v>
+      </c>
+      <c r="R10">
+        <v>0.35221092813</v>
+      </c>
+      <c r="S10">
+        <v>0.02410387350929054</v>
+      </c>
+      <c r="T10">
+        <v>0.02410387350929053</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.03347666666666666</v>
+      </c>
+      <c r="H11">
+        <v>0.10043</v>
+      </c>
+      <c r="I11">
+        <v>0.1527357229435123</v>
+      </c>
+      <c r="J11">
+        <v>0.1527357229435123</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>6.045145666666667</v>
+      </c>
+      <c r="N11">
+        <v>18.135437</v>
+      </c>
+      <c r="O11">
+        <v>0.8160840232643366</v>
+      </c>
+      <c r="P11">
+        <v>0.8160840232643367</v>
+      </c>
+      <c r="Q11">
+        <v>0.2023713264344444</v>
+      </c>
+      <c r="R11">
+        <v>1.82134193791</v>
+      </c>
+      <c r="S11">
+        <v>0.1246451832759285</v>
+      </c>
+      <c r="T11">
+        <v>0.1246451832759286</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.03347666666666666</v>
+      </c>
+      <c r="H12">
+        <v>0.10043</v>
+      </c>
+      <c r="I12">
+        <v>0.1527357229435123</v>
+      </c>
+      <c r="J12">
+        <v>0.1527357229435123</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.6824433333333334</v>
+      </c>
+      <c r="N12">
+        <v>2.04733</v>
+      </c>
+      <c r="O12">
+        <v>0.09212864864242169</v>
+      </c>
+      <c r="P12">
+        <v>0.09212864864242169</v>
+      </c>
+      <c r="Q12">
+        <v>0.02284592798888889</v>
+      </c>
+      <c r="R12">
+        <v>0.2056133519</v>
+      </c>
+      <c r="S12">
+        <v>0.01407133575420911</v>
+      </c>
+      <c r="T12">
+        <v>0.01407133575420911</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.03347666666666666</v>
+      </c>
+      <c r="H13">
+        <v>0.10043</v>
+      </c>
+      <c r="I13">
+        <v>0.1527357229435123</v>
+      </c>
+      <c r="J13">
+        <v>0.1527357229435123</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.6799149999999999</v>
+      </c>
+      <c r="N13">
+        <v>2.039745</v>
+      </c>
+      <c r="O13">
+        <v>0.09178732809324164</v>
+      </c>
+      <c r="P13">
+        <v>0.09178732809324165</v>
+      </c>
+      <c r="Q13">
+        <v>0.02276128781666666</v>
+      </c>
+      <c r="R13">
+        <v>0.20485159035</v>
+      </c>
+      <c r="S13">
+        <v>0.01401920391337461</v>
+      </c>
+      <c r="T13">
+        <v>0.01401920391337462</v>
       </c>
     </row>
   </sheetData>
